--- a/backup/指标体系/指标映射数据.xlsx
+++ b/backup/指标体系/指标映射数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\服创\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B22DED-403D-477A-A028-9B69F84177BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420BAB0C-29F1-4B98-A260-D04C1DF132E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF1069C9-4812-4B4C-9993-CF123E24AD0B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="538">
   <si>
     <t>基本信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -356,10 +356,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>该指标 表明学生对课堂的兴某类趣程度，通过比率来获取兴趣程度，比率与高，则兴趣越高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.获取某学生选取某学院课程的课程数cnt1
 2.获取某学生选课总数cnt2
 3.则对某类课程的兴趣为cnt1/cnt2*100%</t>
@@ -404,10 +400,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 讨论区记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>存量类</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -417,10 +409,6 @@
   </si>
   <si>
     <t>1.3.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是对单个课程归属感的计算还是总的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1099,10 +1087,6 @@
   </si>
   <si>
     <t>计算和该学生所处同一个班级的所有学生的任务点平均成绩，以此来判断该学生作业成绩处于一个什么样的水平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1922,10 +1906,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>归宿感</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.3.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2115,6 +2095,195 @@
   </si>
   <si>
     <t>5.3.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师认可度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该指标表现了学生对老师的认可度，值越高，学生对老师越认可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该指标 表明学生对某类课程的兴趣程度，通过比率来获取兴趣程度，比率与高，则兴趣越高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对于学生选的每个老师、获取学生与对应老师的互动情况（3.3.1.1课上与老师互动主动性，3.3.2.1 课下与老师互动主动性）com
+2.计算选取某个老师的课程数目cnt
+3.对单个老师的认可度为w1*com+cnt*w2,其中w1与w2为权重
+4.该指标最终值为将所有老师的认可度取平均值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对于学生所在选取课程的班级中、获取学生在该班级的发帖、回帖次数cnt
+2.获取对应课程班的课堂交流活跃度（5.2.1）activity
+3.对单个班级的归属感为w1*cnt+w2*activity,其中w1与w2为权重
+4.该指标最终为取单个班级归属感值前三大的平均值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.1 课堂交流活跃度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.1.1 课上与老师互动主动性、3.3.2.1  课下与老师互动主动性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论区记录、课堂活动参与记录、选课记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 讨论区记录、课堂活动参与记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_stat_bbs_log、t_stat_activity_log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论流水、课堂活动参与表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtype、clazzid、status、personid、bbs_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动类型、班级id、活动参与状态、用户id、讨论id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id、创建时间、发帖id、回帖的父id、活动类型、活动参与状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personid、create_time、topic_id、dtype、personid、status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_stat_activity_log、t_stat_bbs_log、t_stat_course_person</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课堂活动参与表、讨论流水、人课关系表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识点掌握度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略执行度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日时长规律</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述学生每日使用平台的时长是否规律</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 统计该学生某段时间内每日在线的时长 
+2. 计算平均差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级关系网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对于某个学生，先在人课关系表中找到他所在的班级id和课程id  
+2.根据班级id，再在人课关系表找到和他在同一个班级的所有学生，记录这些学生的id 
+3.在任务点完成记录表中根据课程id找到该门课程的所有任务点分数，再根据学生id找到这些学生的任务分数
+ 4.计算所有该班级所有学生任务成绩的平均值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_stat_course_person、t_stat_job_finish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人课关系表、任务点完成记录表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personid、courseid、clazzid、insert_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id、课程id、班级id、入库时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：表中没有分数，需要后面获取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述在班级中与某学生熟悉人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对于某学生所选的课程班，获取该班级中与其交流过的有哪些人
+2.获取与对应人的交流次数cnt1(讨论区)
+3.获取每个班级其他学生与该学生参加课堂活动的次数cnt2（群聊，分组讨论）
+4.获取该班级所有的交流次数cnt3
+5.课堂活动（群聊，分组讨论）所有交流次数
+6.获取班级中其他学生与该学生的熟悉分数：w1*cnt1/cnt3+w2*cnt2/cnt4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtype、clazzid、personid、parent_id、bbs_id、topic_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动类型、clazzid、用户id、回帖父id、回帖id、发帖id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业完成记录、考试完成记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该指标表现了学生对相应知识的掌握程度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.获取某知识点对应考试中的对应题目的得分s1和对应作业中的对应题目的得分s2
+2.通过s1与s2获得对应考试和作业中该考生得分的排名前百分率rate
+3.掌握度为10*（1-rate）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2122,7 +2291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2170,6 +2339,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2193,11 +2369,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2206,16 +2388,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2532,10 +2705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D209AA-EA69-422B-8AA9-6451D109D289}">
-  <dimension ref="A1:T80"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2548,7 +2721,9 @@
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="30.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="31.625" style="1" customWidth="1"/>
-    <col min="11" max="15" width="9" style="1"/>
+    <col min="11" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="16.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
     <col min="16" max="16" width="23.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="24.875" style="1" customWidth="1"/>
     <col min="18" max="18" width="24.125" style="1" customWidth="1"/>
@@ -2557,32 +2732,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="3" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2594,13 +2769,13 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2621,13 +2796,13 @@
       <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -2642,47 +2817,47 @@
       <c r="S2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>438</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="T4" s="4"/>
+        <v>440</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -2780,27 +2955,27 @@
     </row>
     <row r="7" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
@@ -2920,10 +3095,10 @@
         <v>55</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>28</v>
@@ -2935,129 +3110,150 @@
         <v>28</v>
       </c>
       <c r="P11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="R11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>451</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>451</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:20" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="J13" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="57" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>25</v>
@@ -3066,16 +3262,16 @@
         <v>64</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>29</v>
@@ -3084,45 +3280,45 @@
         <v>28</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>29</v>
@@ -3131,45 +3327,45 @@
         <v>28</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>29</v>
@@ -3178,45 +3374,45 @@
         <v>28</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="R18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="S18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="B19" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>29</v>
@@ -3225,42 +3421,42 @@
         <v>28</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>28</v>
@@ -3272,42 +3468,42 @@
         <v>28</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>28</v>
@@ -3319,117 +3515,117 @@
         <v>28</v>
       </c>
       <c r="P21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>455</v>
+    </row>
+    <row r="23" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>450</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>180</v>
+        <v>451</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>180</v>
+        <v>451</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>165</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>28</v>
@@ -3440,43 +3636,43 @@
       <c r="N25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P25" s="5" t="s">
-        <v>136</v>
+      <c r="P25" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="R25" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>36</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>28</v>
@@ -3487,398 +3683,377 @@
       <c r="N26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>145</v>
+      <c r="P26" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="Q26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="R26" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="K29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>464</v>
+      <c r="G30" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="J35" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="57" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="57" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>71</v>
+        <v>310</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>73</v>
+        <v>311</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>467</v>
+        <v>314</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>468</v>
+        <v>315</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>468</v>
+        <v>316</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="57" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>250</v>
+        <v>323</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>98</v>
+        <v>325</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>343</v>
+        <v>411</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>338</v>
+        <v>144</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>344</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>460</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>98</v>
+        <v>325</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>348</v>
+        <v>412</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>29</v>
@@ -3887,127 +4062,106 @@
         <v>34</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>466</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>351</v>
+        <v>463</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>352</v>
+        <v>463</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="N39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="P40" s="1" t="s">
-        <v>363</v>
+        <v>70</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>364</v>
+        <v>73</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>470</v>
+        <v>340</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>116</v>
+        <v>341</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>116</v>
+        <v>341</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>419</v>
+        <v>344</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>29</v>
@@ -4016,200 +4170,188 @@
         <v>34</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>370</v>
+        <v>107</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>371</v>
+        <v>57</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>471</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>472</v>
+        <v>347</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>472</v>
+        <v>348</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" s="6" customFormat="1" ht="114" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="E43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="L43" s="6" t="s">
+      <c r="G42" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N43" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="R43" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="S43" s="6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+      <c r="N43" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>327</v>
+        <v>113</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>327</v>
+        <v>113</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>329</v>
+        <v>95</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>415</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>29</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>223</v>
+        <v>366</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>147</v>
+        <v>368</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="114" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>475</v>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>152</v>
+        <v>467</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>152</v>
+        <v>467</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>476</v>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="114" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>329</v>
+        <v>95</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>29</v>
@@ -4218,186 +4360,214 @@
         <v>28</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="57" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>478</v>
+        <v>323</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>478</v>
+        <v>323</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>479</v>
+        <v>25</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="114" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>480</v>
+        <v>149</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>480</v>
+        <v>149</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q49" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="R49" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="S49" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T49" s="6"/>
-    </row>
-    <row r="50" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="G48" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>398</v>
+        <v>472</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>399</v>
+        <v>473</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>399</v>
+        <v>473</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>45</v>
@@ -4406,45 +4576,45 @@
         <v>34</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>45</v>
@@ -4453,991 +4623,1178 @@
         <v>34</v>
       </c>
       <c r="P53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q53" s="1" t="s">
+      <c r="Q55" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="R53" s="1" t="s">
+      <c r="R55" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="S53" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="K56" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="H59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="J59" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I56" s="1" t="s">
+      <c r="N59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q59" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="K56" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="S59" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="N56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="R56" s="1" t="s">
+    </row>
+    <row r="60" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="S56" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L63" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I60" s="1" t="s">
+      <c r="N63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R64" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="K60" s="1" t="s">
+      <c r="S64" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L60" s="1" t="s">
+    </row>
+    <row r="65" spans="1:20" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N60" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="R60" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="S60" s="1" t="s">
+      <c r="C65" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="J65" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="L65" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I61" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="K61" s="1" t="s">
+      <c r="C66" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="J66" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P66" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="Q66" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I62" s="1" t="s">
+      <c r="R66" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P62" s="1" t="s">
+      <c r="S66" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="Q62" s="1" t="s">
+    </row>
+    <row r="67" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="R62" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="S62" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="114" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="G68" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="114" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="99.75" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>249</v>
+        <v>486</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>250</v>
+        <v>487</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>250</v>
+        <v>487</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="142.5" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>254</v>
+        <v>488</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>255</v>
+        <v>489</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>256</v>
+        <v>489</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="57" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>262</v>
+        <v>490</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>263</v>
+        <v>491</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>264</v>
+        <v>491</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="T72" s="1" t="s">
-        <v>266</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="R73" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="S73" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="114" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>277</v>
+        <v>70</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>278</v>
+        <v>72</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="71.25" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>83</v>
+        <v>257</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="128.25" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>436</v>
+        <v>525</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>290</v>
+        <v>526</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>291</v>
+        <v>527</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>292</v>
+        <v>528</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>497</v>
+        <v>263</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>498</v>
+        <v>264</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>498</v>
+        <v>265</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="156.75" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="114" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>499</v>
+        <v>277</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="71.25" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="H80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="171" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P80" s="1" t="s">
+      <c r="I81" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P85" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q80" s="1" t="s">
+      <c r="Q85" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R80" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="S80" s="1" t="s">
-        <v>307</v>
+      <c r="R85" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5448,5 +5805,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/backup/指标体系/指标映射数据.xlsx
+++ b/backup/指标体系/指标映射数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\服创\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\22819\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420BAB0C-29F1-4B98-A260-D04C1DF132E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB958DDD-C4E5-4335-93E6-C7310C92624D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF1069C9-4812-4B4C-9993-CF123E24AD0B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{DF1069C9-4812-4B4C-9993-CF123E24AD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="548">
   <si>
     <t>基本信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -567,13 +556,7 @@
   </si>
   <si>
     <t>t_stat_work_answer</t>
-  </si>
-  <si>
-    <t>t_stat_work_answer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生作业提交记录表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>score、status、insert_time、answer_time</t>
@@ -1719,11 +1702,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 某段时间该学生在讨论区发帖的总次数/某段时间 （可以通过发帖的回复量多少来赋予每个贴不同的权重） 
-2. 课堂活动？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 计算规律性（见规律性指标） 
 2.计算三天来（或一周来、一个月来）比较关注某类问题的时间段数，若一段时间查看某类问题的时间占比大于某个值即比较关注</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2286,12 +2264,100 @@
 3.掌握度为10*（1-rate）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>t_stat_online_time、t_stat_login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线时长、登录流水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">personid、online_time；
+personid、last_modify_time
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用户id、在线时长（毫秒）；
+用户id、最后更新时间
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 某段时间该学生在讨论区发帖的总次数/某段时间 p1（可以通过发帖的回复量多少来赋予每个贴不同的权重） 
+2. 计算学生课程讨论（课堂活动）的次数/某段时间 p2
+3. 计算该指标最终得分 w1*p1+w2*p2
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personid、create_time、topic_id、parent_id；dtype、activity_id、personid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id、创建时间、发帖id、回帖的父id；
+活动类型、发布活动id、用户id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">t_stat_login；t_stat_work_answer；t_stat_online_time；t_stat_login；
+t_stat_bbs_log；
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">personid、insert_time、last_modify_time；personid、insert_time；personid、online_time；
+personid、last_modify_time；
+personid、topic_id、courseid；
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id、入库时间、最后更新时间；
+用户id、入库时间；用户id、在线时长（毫秒）；
+用户id、最后更新时间；
+用户id、发帖id、课程id；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>登录流水表；
+学生作业提交记录表；
+在线时长；
+登录流水；
+讨论流水；
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>造表关于知识点表）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该系统会给学生一些学习计划，若学生接受了某些计划，则需要按时完成，该指标表现的学生对应计划的执行度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.获取某学生正在执行的学习计划
+2.对于每个计划计算其完成度ci
+3.其执行度为每个正在进行的计划完成度的平均值：avg(ci</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2346,6 +2412,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2369,7 +2450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2382,13 +2463,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2707,59 +2791,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D209AA-EA69-422B-8AA9-6451D109D289}">
   <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.46484375" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="28.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.3984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="30.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.86328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.59765625" style="1" customWidth="1"/>
     <col min="11" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="16.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.46484375" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="23.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="24.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="24.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.73046875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="24.86328125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24.1328125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.46484375" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:20" ht="17.649999999999999" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="5" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-    </row>
-    <row r="2" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2821,45 +2905,45 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F3" s="2"/>
       <c r="M3" s="2"/>
       <c r="O3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F4" s="2"/>
       <c r="M4" s="2"/>
       <c r="O4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="144.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -2906,7 +2990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="136.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -2953,35 +3037,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -3028,7 +3112,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -3075,7 +3159,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="93" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>77</v>
       </c>
@@ -3095,7 +3179,7 @@
         <v>55</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>80</v>
@@ -3122,9 +3206,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>90</v>
@@ -3136,8 +3220,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:20" ht="138.75" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3150,7 +3234,7 @@
         <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>26</v>
@@ -3158,94 +3242,94 @@
       <c r="I13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>500</v>
+      <c r="J13" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="P13" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>495</v>
+    </row>
+    <row r="14" spans="1:20" ht="138.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="J14" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="P14" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>93</v>
       </c>
@@ -3292,7 +3376,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>103</v>
       </c>
@@ -3339,7 +3423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>108</v>
       </c>
@@ -3386,7 +3470,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>119</v>
       </c>
@@ -3433,7 +3517,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="97.15" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>129</v>
       </c>
@@ -3453,10 +3537,10 @@
         <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>28</v>
@@ -3468,42 +3552,42 @@
         <v>28</v>
       </c>
       <c r="P20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="57" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>28</v>
@@ -3515,42 +3599,42 @@
         <v>28</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:19" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>28</v>
@@ -3562,70 +3646,70 @@
         <v>28</v>
       </c>
       <c r="P22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="R22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="B25" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>28</v>
@@ -3637,27 +3721,27 @@
         <v>28</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>36</v>
       </c>
       <c r="S25" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>25</v>
@@ -3669,10 +3753,10 @@
         <v>26</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>28</v>
@@ -3684,42 +3768,42 @@
         <v>28</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>28</v>
@@ -3731,56 +3815,56 @@
         <v>28</v>
       </c>
       <c r="P27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R27" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="R27" s="1" t="s">
+      <c r="S27" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>28</v>
@@ -3804,115 +3888,121 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="51.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="97.15" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>29</v>
@@ -3921,45 +4011,45 @@
         <v>28</v>
       </c>
       <c r="P35" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="R35" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="S35" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="R35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:19" ht="138.75" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>29</v>
@@ -3974,39 +4064,39 @@
         <v>100</v>
       </c>
       <c r="R36" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" ht="57" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="J37" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>29</v>
@@ -4015,45 +4105,45 @@
         <v>28</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q37" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="124.9" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="57" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>29</v>
@@ -4062,59 +4152,59 @@
         <v>34</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>71</v>
+        <v>502</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>73</v>
+        <v>503</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>334</v>
+        <v>540</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>95</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>45</v>
@@ -4129,39 +4219,39 @@
         <v>73</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>95</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>29</v>
@@ -4176,97 +4266,109 @@
         <v>57</v>
       </c>
       <c r="R41" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="138.75" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="P42" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="97.15" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>95</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>29</v>
       </c>
       <c r="N43" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q43" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="R43" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="S43" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="R43" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:19" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>113</v>
@@ -4278,19 +4380,19 @@
         <v>25</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>95</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>29</v>
@@ -4299,59 +4401,59 @@
         <v>34</v>
       </c>
       <c r="P44" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="R44" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="S44" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="R44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="124.9" x14ac:dyDescent="0.4">
+      <c r="A46" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="S44" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="114" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>95</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>29</v>
@@ -4360,45 +4462,45 @@
         <v>28</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="J47" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>29</v>
@@ -4407,92 +4509,92 @@
         <v>28</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="R47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S47" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="S47" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="114" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>470</v>
+    </row>
+    <row r="48" spans="1:19" ht="111" x14ac:dyDescent="0.4">
+      <c r="A48" s="7" t="s">
+        <v>467</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="K48" s="1" t="s">
+      <c r="N48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q48" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="R48" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="N48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q48" s="1" t="s">
+      <c r="S48" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="R48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:19" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="S48" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>29</v>
@@ -4507,67 +4609,67 @@
         <v>58</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>45</v>
@@ -4582,39 +4684,39 @@
         <v>57</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>45</v>
@@ -4629,53 +4731,53 @@
         <v>57</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I55" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>45</v>
@@ -4690,39 +4792,39 @@
         <v>72</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>45</v>
@@ -4737,70 +4839,70 @@
         <v>72</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="97.15" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>95</v>
       </c>
       <c r="I59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>28</v>
@@ -4809,45 +4911,45 @@
         <v>128</v>
       </c>
       <c r="Q59" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S59" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="R59" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="S59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:19" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>28</v>
@@ -4856,39 +4958,39 @@
         <v>132</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>29</v>
@@ -4896,51 +4998,63 @@
       <c r="N61" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P61" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>95</v>
       </c>
       <c r="I63" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L63" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>28</v>
@@ -4949,45 +5063,45 @@
         <v>127</v>
       </c>
       <c r="Q63" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="R63" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>95</v>
       </c>
       <c r="I64" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>28</v>
@@ -4996,45 +5110,45 @@
         <v>127</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R64" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="S64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>95</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>28</v>
@@ -5046,286 +5160,286 @@
         <v>58</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="99.75" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="97.15" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>95</v>
       </c>
       <c r="I66" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q66" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J66" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P66" s="1" t="s">
+      <c r="R66" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="S66" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="R66" s="1" t="s">
+    </row>
+    <row r="67" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="S66" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I68" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="N68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P68" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L68" s="1" t="s">
+      <c r="Q68" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="N68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P68" s="1" t="s">
+      <c r="R68" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="Q68" s="1" t="s">
+      <c r="S68" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="R68" s="1" t="s">
+    </row>
+    <row r="69" spans="1:20" ht="111" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="S68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" ht="114" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I69" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="S69" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J69" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="C72" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" ht="138.75" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q73" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P73" s="1" t="s">
+      <c r="R73" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="Q73" s="1" t="s">
+      <c r="S73" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="R73" s="1" t="s">
+    </row>
+    <row r="74" spans="1:20" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="S73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>28</v>
@@ -5337,233 +5451,233 @@
         <v>72</v>
       </c>
       <c r="R74" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="138.75" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="S74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I75" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q75" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P75" s="1" t="s">
+      <c r="R75" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="S75" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="Q75" s="1" t="s">
+    </row>
+    <row r="76" spans="1:20" ht="138.75" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="R75" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="S75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I76" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="138.75" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="J76" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="S76" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="T76" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I77" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q77" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P77" s="1" t="s">
+      <c r="R77" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="111" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="Q77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="R77" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="S77" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="114" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I78" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q78" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J78" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P78" s="1" t="s">
+      <c r="R78" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="Q78" s="1" t="s">
+      <c r="S78" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="R78" s="1" t="s">
+    </row>
+    <row r="79" spans="1:20" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="S78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>28</v>
@@ -5578,208 +5692,208 @@
         <v>85</v>
       </c>
       <c r="S79" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="124.9" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I80" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q80" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="J80" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P80" s="1" t="s">
+      <c r="R80" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="Q80" s="1" t="s">
+      <c r="S80" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="R80" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="S80" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" ht="171" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:19" ht="166.5" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I81" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="S81" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="J81" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="R81" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="S81" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="156.75" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="152.65" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I83" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q83" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P83" s="1" t="s">
+      <c r="R83" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="Q83" s="1" t="s">
+      <c r="S83" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="R83" s="1" t="s">
+    </row>
+    <row r="84" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="S83" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>28</v>
@@ -5791,10 +5905,10 @@
         <v>73</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/backup/指标体系/指标映射数据.xlsx
+++ b/backup/指标体系/指标映射数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26316"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\22819\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30838\My\File\Code\Python\SES\backup\指标体系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB958DDD-C4E5-4335-93E6-C7310C92624D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FACC602-4A5D-4246-B65F-556512CEA403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{DF1069C9-4812-4B4C-9993-CF123E24AD0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF1069C9-4812-4B4C-9993-CF123E24AD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,12 +203,6 @@
   </si>
   <si>
     <t>周、月、学期</t>
-  </si>
-  <si>
-    <t>1.获取某个学生几次考试成绩求平均值，并且获取某个学生近几次作业成绩求平均值，在获取综合成绩，三个成绩分别乘某个权值相加后得score
-2.获取讨论区活跃度、任务完成度与活动参与度，三个值分别乘某个权值相加后得activity
-3.最后 深度=score/activity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.获取某个学生任务完成时间与作业完成时间，两个分别乘一个权值相加得time
@@ -2350,6 +2344,12 @@
     <t>1.获取某学生正在执行的学习计划
 2.对于每个计划计算其完成度ci
 3.其执行度为每个正在进行的计划完成度的平均值：avg(ci</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.获取某个学生几次考试成绩求平均值，并且获取某个学生近几次作业成绩求平均值，再获取综合成绩，三个成绩分别乘某个权值相加后得score
+2.获取讨论区活跃度、任务完成度与活动参与度，三个值分别乘某个权值相加后得activity
+3.最后 深度=score/activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2466,14 +2466,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2791,59 +2791,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D209AA-EA69-422B-8AA9-6451D109D289}">
   <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="G26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.46484375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="28.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="30.86328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.59765625" style="1" customWidth="1"/>
-    <col min="11" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="16.46484375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="23.73046875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="24.86328125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="24.1328125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.46484375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="24.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="6" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-    </row>
-    <row r="2" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2905,45 +2906,45 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F3" s="2"/>
       <c r="M3" s="2"/>
       <c r="O3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F4" s="2"/>
       <c r="M4" s="2"/>
       <c r="O4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" ht="144.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" ht="114" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>547</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>28</v>
@@ -2990,7 +2991,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="136.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>26</v>
@@ -3013,7 +3014,7 @@
         <v>44</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>28</v>
@@ -3028,67 +3029,67 @@
         <v>31</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>28</v>
@@ -3100,42 +3101,42 @@
         <v>28</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="S9" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="96" customHeight="1" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>28</v>
@@ -3147,42 +3148,42 @@
         <v>28</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="S10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:20" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="93" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>28</v>
@@ -3194,168 +3195,168 @@
         <v>28</v>
       </c>
       <c r="P11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="R11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="138.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J13" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="P13" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="138.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:20" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P14" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="R14" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:20" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>29</v>
@@ -3364,42 +3365,42 @@
         <v>28</v>
       </c>
       <c r="P16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="S16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>28</v>
@@ -3411,10 +3412,10 @@
         <v>28</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>36</v>
@@ -3423,33 +3424,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>29</v>
@@ -3458,45 +3459,45 @@
         <v>28</v>
       </c>
       <c r="P18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="R18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="S18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>29</v>
@@ -3505,42 +3506,42 @@
         <v>28</v>
       </c>
       <c r="P19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>28</v>
@@ -3552,42 +3553,42 @@
         <v>28</v>
       </c>
       <c r="P20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="S20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>28</v>
@@ -3599,42 +3600,42 @@
         <v>28</v>
       </c>
       <c r="P21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="R21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S21" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="B22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>28</v>
@@ -3646,70 +3647,70 @@
         <v>28</v>
       </c>
       <c r="P22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="S22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="B25" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>28</v>
@@ -3721,42 +3722,42 @@
         <v>28</v>
       </c>
       <c r="P25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>36</v>
       </c>
       <c r="S25" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>28</v>
@@ -3768,42 +3769,42 @@
         <v>28</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="41.65" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>28</v>
@@ -3815,56 +3816,56 @@
         <v>28</v>
       </c>
       <c r="P27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R27" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="S27" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="41.65" x14ac:dyDescent="0.4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>28</v>
@@ -3876,10 +3877,10 @@
         <v>28</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>36</v>
@@ -3888,121 +3889,121 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="51.4" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:19" ht="57" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="97.15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>29</v>
@@ -4011,45 +4012,45 @@
         <v>28</v>
       </c>
       <c r="P35" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q35" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="R35" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="S35" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="S35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:19" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" ht="138.75" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>29</v>
@@ -4058,45 +4059,45 @@
         <v>28</v>
       </c>
       <c r="P36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q36" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Q36" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="R36" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="S36" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="S36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>29</v>
@@ -4105,45 +4106,45 @@
         <v>28</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q37" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="114" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="R37" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="124.9" x14ac:dyDescent="0.4">
-      <c r="A38" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>29</v>
@@ -4152,59 +4153,59 @@
         <v>34</v>
       </c>
       <c r="P38" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q38" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="Q38" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="R38" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="S38" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="S38" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:19" ht="57" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="K40" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>45</v>
@@ -4213,45 +4214,45 @@
         <v>34</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R40" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="S40" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="S40" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="41.65" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="K41" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>29</v>
@@ -4260,139 +4261,139 @@
         <v>34</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R41" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="S41" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="S41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:19" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" ht="138.75" x14ac:dyDescent="0.4">
-      <c r="A42" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="P42" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="R42" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="Q42" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="R42" s="1" t="s">
+      <c r="S42" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="S42" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="97.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>29</v>
       </c>
       <c r="N43" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="R43" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="R43" s="1" t="s">
+      <c r="S43" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="S43" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="41.65" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>29</v>
@@ -4401,59 +4402,59 @@
         <v>34</v>
       </c>
       <c r="P44" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q44" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="R44" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="R44" s="1" t="s">
+      <c r="S44" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="S44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="114" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="124.9" x14ac:dyDescent="0.4">
-      <c r="A46" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="J46" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>29</v>
@@ -4462,45 +4463,45 @@
         <v>28</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R46" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="S46" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="S46" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:19" ht="57" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>29</v>
@@ -4509,92 +4510,92 @@
         <v>28</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="111" x14ac:dyDescent="0.4">
-      <c r="A48" s="7" t="s">
-        <v>467</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="114" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>466</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="N48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q48" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="N48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q48" s="1" t="s">
+      <c r="R48" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="R48" s="1" t="s">
+      <c r="S48" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="S48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>29</v>
@@ -4603,73 +4604,73 @@
         <v>28</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R49" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="S49" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="S49" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="K52" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>45</v>
@@ -4678,45 +4679,45 @@
         <v>34</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R52" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="S52" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I53" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="K53" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>45</v>
@@ -4725,59 +4726,59 @@
         <v>34</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I55" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="K55" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>45</v>
@@ -4786,45 +4787,45 @@
         <v>34</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R55" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="S55" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="S55" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="41.65" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I56" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="K56" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>45</v>
@@ -4833,164 +4834,164 @@
         <v>34</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R56" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="S56" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="S56" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="97.15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G59" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="K59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="N59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q59" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="N59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q59" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="R59" s="1" t="s">
+      <c r="S59" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="S59" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="97.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L60" s="1" t="s">
+      <c r="N60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="R60" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N60" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="R60" s="1" t="s">
+      <c r="S60" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="S60" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>29</v>
@@ -4999,916 +5000,916 @@
         <v>28</v>
       </c>
       <c r="P61" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q61" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="R61" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="R61" s="1" t="s">
+      <c r="S61" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="S61" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="83.25" x14ac:dyDescent="0.4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G63" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="J63" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="K63" s="1" t="s">
+      <c r="L63" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="N63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q63" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="N63" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q63" s="1" t="s">
+      <c r="R63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="R63" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I64" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J64" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="K64" s="1" t="s">
+      <c r="L64" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="N64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R64" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="N64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="R64" s="1" t="s">
+      <c r="S64" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="S64" s="1" t="s">
+    </row>
+    <row r="65" spans="1:20" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I65" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="K65" s="1" t="s">
+      <c r="L65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L65" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="A66" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I66" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P66" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="J66" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P66" s="1" t="s">
+      <c r="Q66" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="R66" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="R66" s="1" t="s">
+      <c r="S66" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="S66" s="1" t="s">
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I68" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="K68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L68" s="1" t="s">
+      <c r="N68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P68" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="N68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P68" s="1" t="s">
+      <c r="Q68" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Q68" s="1" t="s">
+      <c r="R68" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="R68" s="1" t="s">
+      <c r="S68" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="S68" s="1" t="s">
+    </row>
+    <row r="69" spans="1:20" ht="114" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" ht="111" x14ac:dyDescent="0.4">
-      <c r="A69" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I69" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="R69" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J69" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="R69" s="1" t="s">
+      <c r="S69" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="S69" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="B71" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B71" s="1" t="s">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="C72" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="138.75" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:20" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="C73" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P73" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P73" s="1" t="s">
+      <c r="Q73" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="Q73" s="1" t="s">
+      <c r="R73" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="R73" s="1" t="s">
+      <c r="S73" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="S73" s="1" t="s">
+    </row>
+    <row r="74" spans="1:20" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I74" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R74" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R74" s="1" t="s">
+      <c r="S74" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="S74" s="1" t="s">
+    </row>
+    <row r="75" spans="1:20" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" ht="138.75" x14ac:dyDescent="0.4">
-      <c r="A75" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="E75" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I75" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P75" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P75" s="1" t="s">
+      <c r="Q75" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="Q75" s="1" t="s">
+      <c r="R75" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="S75" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="R75" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="S75" s="1" t="s">
+    </row>
+    <row r="76" spans="1:20" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" ht="138.75" x14ac:dyDescent="0.4">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I76" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="J76" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="S76" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="T76" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="138.75" x14ac:dyDescent="0.4">
-      <c r="A77" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I77" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P77" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P77" s="1" t="s">
+      <c r="Q77" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="Q77" s="1" t="s">
+      <c r="R77" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="114" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="R77" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="S77" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="111" x14ac:dyDescent="0.4">
-      <c r="A78" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="E78" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I78" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P78" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="J78" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P78" s="1" t="s">
+      <c r="Q78" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="Q78" s="1" t="s">
+      <c r="R78" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="R78" s="1" t="s">
+      <c r="S78" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="S78" s="1" t="s">
+    </row>
+    <row r="79" spans="1:20" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="A79" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I79" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S79" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="J79" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="R79" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S79" s="1" t="s">
+    </row>
+    <row r="80" spans="1:20" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" ht="124.9" x14ac:dyDescent="0.4">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I80" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P80" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J80" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P80" s="1" t="s">
+      <c r="Q80" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Q80" s="1" t="s">
+      <c r="R80" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="R80" s="1" t="s">
+      <c r="S80" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="S80" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" ht="166.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="1:19" ht="171" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="C81" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I81" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="J81" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="K81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="R81" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="K81" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="R81" s="1" t="s">
+      <c r="S81" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="S81" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="C82" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="152.65" x14ac:dyDescent="0.4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I83" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P83" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P83" s="1" t="s">
+      <c r="Q83" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="Q83" s="1" t="s">
+      <c r="R83" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="R83" s="1" t="s">
+      <c r="S83" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="S83" s="1" t="s">
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="A85" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I85" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R85" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="J85" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q85" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R85" s="1" t="s">
+      <c r="S85" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="S85" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>
